--- a/Pages/majorvictories.xlsx
+++ b/Pages/majorvictories.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Melbage\melbageweb\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C079FAA4-7EEF-40FA-82F5-8FBDBEED07B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56000BA-0FAF-4803-BE41-ECBF1CCBF8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="majorvictories" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -654,6 +665,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -699,7 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1083,10 +1112,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
@@ -1190,6 +1219,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
+        <f>SUM(C3:K3)</f>
         <v>13</v>
       </c>
     </row>
@@ -1228,6 +1258,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="7">
+        <f t="shared" ref="L4:L33" si="0">SUM(C4:K4)</f>
         <v>13</v>
       </c>
     </row>
@@ -1266,6 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1304,6 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1342,6 +1375,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1380,6 +1414,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1418,6 +1453,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1456,6 +1492,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1494,6 +1531,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1532,6 +1570,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1570,6 +1609,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1608,6 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1646,6 +1687,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1684,6 +1726,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1722,6 +1765,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1760,6 +1804,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1798,6 +1843,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1836,6 +1882,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1844,19 +1891,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -1865,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -1874,7 +1921,8 @@
         <v>0</v>
       </c>
       <c r="L21" s="7">
-        <v>2</v>
+        <f>SUM(C21:K21)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1882,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -1903,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -1912,6 +1960,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1920,19 +1969,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -1950,6 +1999,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1988,6 +2038,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2026,6 +2077,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2064,6 +2116,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2102,6 +2155,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2140,6 +2194,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2178,6 +2233,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2216,6 +2272,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2254,6 +2311,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2291,7 +2349,8 @@
       <c r="K32" s="9">
         <v>0</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2328,6 +2387,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="7">
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
